--- a/exports/model_ons_pdcmi_bsb.xlsx
+++ b/exports/model_ons_pdcmi_bsb.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiomantelli/Documents/Repositories/medfasee/stat-python/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiomantelli/Documents/Repositories/medfasee/stat-python/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB28B54B-40BF-EE45-8B25-4FCC20F3BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DC55E2-D220-3344-8737-93E1AFD21442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49520" yWindow="1180" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Síntese" sheetId="1" r:id="rId1"/>
+    <sheet name="Sintese" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -446,7 +446,7 @@
   <dimension ref="A1:X605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
